--- a/biology/Botanique/Ernodea/Ernodea.xlsx
+++ b/biology/Botanique/Ernodea/Ernodea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ernodea est un genre de plantes de la famille des Rubiaceae. Ce sont de petits buissons, endémiques de la région des Caraïbes, la plupart des espèces se limitant à l'archipel des Bahamas[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ernodea est un genre de plantes de la famille des Rubiaceae. Ce sont de petits buissons, endémiques de la région des Caraïbes, la plupart des espèces se limitant à l'archipel des Bahamas.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (9 octobre 2015)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (9 octobre 2015) :
 Ernodea angusta Small
 Ernodea cokeri Britton ex Coker
 Ernodea gigantea Correll
@@ -522,12 +536,12 @@
 Ernodea nashii Britton
 Ernodea serratifolia Correll
 Ernodea taylorii Britton
-Selon GRIN            (9 octobre 2015)[4] :
+Selon GRIN            (9 octobre 2015) :
 Ernodea littoralis Sw.
-Selon ITIS      (9 octobre 2015)[5] :
+Selon ITIS      (9 octobre 2015) :
 Ernodea cokeri Britton ex Coker
 Ernodea littoralis Sw.
-Selon World Checklist of Selected Plant Families (WCSP)  (9 octobre 2015)[6] :
+Selon World Checklist of Selected Plant Families (WCSP)  (9 octobre 2015) :
 Ernodea angusta Small (1905)
 Ernodea cokeri Britton ex Coker (1905)
 Ernodea gigantea Correll (1977)
@@ -536,10 +550,10 @@
 Ernodea nashii Britton (1908)
 Ernodea serratifolia Correll (1977)
 Ernodea taylorii Britton (1908)
-Selon NCBI  (9 octobre 2015)[7] :
+Selon NCBI  (9 octobre 2015) :
 Ernodea littoralis
 Ernodea taylori
-Selon The Plant List            (9 octobre 2015)[8] :
+Selon The Plant List            (9 octobre 2015) :
 Ernodea angusta Small
 Ernodea cokeri Britton ex Coker
 Ernodea gigantea Correll
@@ -549,7 +563,7 @@
 Ernodea serratifolia Correll
 Ernodea taylori Britton
 Ernodea uninervis Urb.
-Selon Tropicos                                           (9 octobre 2015)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (9 octobre 2015) (Attention liste brute contenant possiblement des synonymes) :
 Ernodea angusta Small
 Ernodea calabrica (L. f.) Link
 Ernodea cokeri Britton ex Coker
@@ -564,7 +578,7 @@
 Ernodea serratifolia Correll
 Ernodea taylori Britton
 Ernodea uninervis Urb.
-Selon World Register of Marine Species                               (9 octobre 2015)[9] :
+Selon World Register of Marine Species                               (9 octobre 2015) :
 Ernodea littoralis Swartz, 1788
 </t>
         </is>
